--- a/injector_design_runs.xlsx
+++ b/injector_design_runs.xlsx
@@ -8,19 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dl/Documents/GitHub/Turbopump/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B55B134-2287-2643-88A3-C721409BBA3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4955DF0-EC9B-1D41-AD0C-77AD3770F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="runs" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
   <si>
     <t>d_hole_rp1_mm</t>
   </si>
@@ -71,6 +72,84 @@
   </si>
   <si>
     <t>radius_corner_lox</t>
+  </si>
+  <si>
+    <t>MCC_diameter</t>
+  </si>
+  <si>
+    <t>rod_diameter</t>
+  </si>
+  <si>
+    <t>rp1_in</t>
+  </si>
+  <si>
+    <t>rp1_out</t>
+  </si>
+  <si>
+    <t>ox_in</t>
+  </si>
+  <si>
+    <t>ox_out</t>
+  </si>
+  <si>
+    <t>rp1_hole_diameter</t>
+  </si>
+  <si>
+    <t>rp1_hole_diameter2</t>
+  </si>
+  <si>
+    <t>ox_hole_diameter</t>
+  </si>
+  <si>
+    <t>ox_hole_diameter2</t>
+  </si>
+  <si>
+    <t>negative_rp1_d_angle</t>
+  </si>
+  <si>
+    <t>positive_rp1_d_angle</t>
+  </si>
+  <si>
+    <t>positive_ox_d_angle</t>
+  </si>
+  <si>
+    <t>negative_ox_d_angle</t>
+  </si>
+  <si>
+    <t>rp1_hole_diameter3</t>
+  </si>
+  <si>
+    <t>rp1_hole_diameter4</t>
+  </si>
+  <si>
+    <t>ox_hole_diameter3</t>
+  </si>
+  <si>
+    <t>ox_hole_diameter4</t>
+  </si>
+  <si>
+    <t>holes_per_ring</t>
+  </si>
+  <si>
+    <t>positive_rp1_in_w_half</t>
+  </si>
+  <si>
+    <t>negative_rp1_in_w_half</t>
+  </si>
+  <si>
+    <t>positive_rp1_out_w_half</t>
+  </si>
+  <si>
+    <t>negative_rp1_out_w_half</t>
+  </si>
+  <si>
+    <t>manifold_height</t>
+  </si>
+  <si>
+    <t>inj_plate_thickness</t>
+  </si>
+  <si>
+    <t>positive_ox_w_half</t>
   </si>
 </sst>
 </file>
@@ -410,10 +489,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q2"/>
+  <dimension ref="A1:Q4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -538,7 +617,263 @@
         <v>2.583333333333333</v>
       </c>
     </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>0.99933031181133081</v>
+      </c>
+      <c r="B3">
+        <v>1.3292863699519619</v>
+      </c>
+      <c r="C3">
+        <v>74</v>
+      </c>
+      <c r="D3">
+        <v>75.128546432984351</v>
+      </c>
+      <c r="E3">
+        <v>136.1353915576324</v>
+      </c>
+      <c r="F3">
+        <v>88.735391557632425</v>
+      </c>
+      <c r="G3">
+        <v>122.5285464329843</v>
+      </c>
+      <c r="H3">
+        <v>13</v>
+      </c>
+      <c r="I3">
+        <v>9.102697996726226</v>
+      </c>
+      <c r="J3">
+        <v>6.8396308693965207</v>
+      </c>
+      <c r="K3">
+        <v>2.9932627833677969</v>
+      </c>
+      <c r="L3">
+        <v>10.123237059425289</v>
+      </c>
+      <c r="M3">
+        <v>105.6319689953084</v>
+      </c>
+      <c r="N3">
+        <v>15.5</v>
+      </c>
+      <c r="O3">
+        <v>15.5</v>
+      </c>
+      <c r="P3">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="Q3">
+        <v>2.583333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>0.99933031181133081</v>
+      </c>
+      <c r="B4">
+        <v>1.3292863699519619</v>
+      </c>
+      <c r="C4">
+        <v>74</v>
+      </c>
+      <c r="D4">
+        <v>73.528546432984356</v>
+      </c>
+      <c r="E4">
+        <v>129.53539155763201</v>
+      </c>
+      <c r="F4">
+        <v>87.135391557632431</v>
+      </c>
+      <c r="G4">
+        <v>115.9285464329844</v>
+      </c>
+      <c r="H4">
+        <v>13</v>
+      </c>
+      <c r="I4">
+        <v>9.102697996726226</v>
+      </c>
+      <c r="J4">
+        <v>6.8396308693965207</v>
+      </c>
+      <c r="K4">
+        <v>2.9932627833677969</v>
+      </c>
+      <c r="L4">
+        <v>10.123237059425289</v>
+      </c>
+      <c r="M4">
+        <v>101.5319689953084</v>
+      </c>
+      <c r="N4">
+        <v>15.5</v>
+      </c>
+      <c r="O4">
+        <v>15.5</v>
+      </c>
+      <c r="P4">
+        <v>2.583333333333333</v>
+      </c>
+      <c r="Q4">
+        <v>2.583333333333333</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE6EEB-0A66-DE45-9865-756E512758B5}">
+  <dimension ref="A1:A27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/injector_design_runs.xlsx
+++ b/injector_design_runs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dl/Documents/GitHub/Turbopump/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4955DF0-EC9B-1D41-AD0C-77AD3770F6D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6990D62D-E646-194F-A760-CC7A12AAC702}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38400" yWindow="500" windowWidth="34560" windowHeight="21100" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="44">
   <si>
     <t>d_hole_rp1_mm</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>positive_ox_w_half</t>
+  </si>
+  <si>
+    <t>mm</t>
   </si>
 </sst>
 </file>
@@ -730,147 +733,231 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DE6EEB-0A66-DE45-9865-756E512758B5}">
-  <dimension ref="A1:A27"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C5" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C10" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C14" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C18" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C21" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C24" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C25" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="C26" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>42</v>
+      </c>
+      <c r="C27" t="s">
+        <v>43</v>
       </c>
     </row>
   </sheetData>
